--- a/data/trans_camb/P32A-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P32A-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">

--- a/data/trans_camb/P32A-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P32A-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>-0,38</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>-0,19</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1,37</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3,48</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,74</t>
         </is>
       </c>
     </row>
@@ -685,22 +685,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,2; 2,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,63; 2,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,97; 7,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 18,64</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -715,17 +715,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,34; 4,51</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,32; 1,87</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,08; 5,34</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-25,47%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>-12,64%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>92,07%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>73,6%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,18%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>69,6%</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,16</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,5</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,18; 2,12</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,18; 2,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,22; 1,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,63; 5,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 5,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 4,12</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,39; 2,48</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,59; 2,44</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,99; 1,75</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>51,57%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,53%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,87%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>136,87%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>116,16%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>68,67%</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,23; 667,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,92; 829,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1037,17 +1037,17 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,5; 1215,68</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,24; 1569,6</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,87; 924,29</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,08</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,74</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,64</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,46</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,24; 3,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,65; 3,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,45; 2,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 1,69</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,29; 2,84</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,1; 6,01</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,08; 2,23</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,58; 2,87</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,46; 2,73</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>137,62%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>242,62%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>101,67%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>154,11%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>282,36%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>252,13%</t>
         </is>
       </c>
     </row>
@@ -1223,17 +1223,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,25; 867,1</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,62; 1147,44</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,99; 603,21</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1253,17 +1253,17 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,95; 849,37</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,11; 1150,34</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,52; 970,47</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,01</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,4</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,34; 3,77</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,63; 1,67</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,22; 0,79</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,57; 0,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,84; 0,84</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,24; 4,86</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,19; 2,33</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,04; 1,07</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,05; 1,28</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>52,04%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,36%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,82%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-41,1%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>131,45%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,15%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,22%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,39%</t>
         </is>
       </c>
     </row>
@@ -1439,17 +1439,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,83; 334,03</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,53; 166,24</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,11; 85,01</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1469,17 +1469,17 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,55; 232,21</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,92; 130,45</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,99; 136,39</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,58</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,93</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,32</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,22; 4,36</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,16; 2,21</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,74; 3,69</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,92; 2,22</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,26; 3,51</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,97; 1,58</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,7; 2,88</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,29; 2,24</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,38; 2,55</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>521,83%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>183,12%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>391,2%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>56,0%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>238,59%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>61,02%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>307,04%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>214,99%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>237,38%</t>
         </is>
       </c>
     </row>
@@ -1655,17 +1655,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>81,16; 2261,69</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,47; —</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,77; 2508,96</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1675,27 +1675,27 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,9; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-80,19; —</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>52,32; 1159,19</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,89; 938,61</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,24; 1002,21</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,88</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,67; 2,47</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,13; 1,71</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,01; 1,55</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,12; 1,33</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,28; 1,93</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,44; 2,43</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,52; 1,77</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,37; 1,51</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,31; 1,53</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>137,65%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>87,19%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>68,95%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>160,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>308,22%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>373,68%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>137,07%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>112,3%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>106,43%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>37,81; 318,16</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,24; 232,6</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,54; 206,88</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,93; 1299,42</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,08; 1448,3</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>33,13; 1880,14</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>42,03; 280,97</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,33; 239,18</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,58; 253,76</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P32A-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P32A-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,19</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,37</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,48</t>
+          <t>2,38</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>0,49</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 2,31</t>
+          <t>-1,14; 2,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 2,64</t>
+          <t>-1,21; 2,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 7,29</t>
+          <t>-1,31; 1,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,64</t>
+          <t>0,58; 5,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 4,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 2,93</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 4,51</t>
+          <t>-0,3; 2,34</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 1,87</t>
+          <t>-0,53; 1,99</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 5,34</t>
+          <t>-0,78; 1,62</t>
         </is>
       </c>
     </row>
@@ -738,17 +738,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-25,47%</t>
+          <t>35,01%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-12,64%</t>
+          <t>39,56%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>92,07%</t>
+          <t>34,95%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -758,27 +758,27 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>73,6%</t>
+          <t>122,84%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-13,18%</t>
+          <t>84,92%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>69,6%</t>
+          <t>62,09%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-73,14; 606,79</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-80,63; 550,08</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-75,87; 521,34</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,54; 707,96</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,13; 740,54</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,76; 609,61</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>2,08</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,16</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>2,76</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>1,64</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>1,41</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 2,12</t>
+          <t>-0,24; 3,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 2,22</t>
+          <t>0,65; 3,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 1,98</t>
+          <t>-0,49; 2,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,63; 5,81</t>
+          <t>0,0; 1,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,73</t>
+          <t>0,29; 2,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,12</t>
+          <t>1,12; 6,05</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 2,48</t>
+          <t>-0,08; 2,23</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 2,44</t>
+          <t>0,58; 2,87</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 1,75</t>
+          <t>0,42; 2,66</t>
         </is>
       </c>
     </row>
@@ -954,17 +954,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>51,57%</t>
+          <t>137,62%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>55,53%</t>
+          <t>242,62%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>30,87%</t>
+          <t>93,41%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -984,17 +984,17 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>136,87%</t>
+          <t>154,11%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>116,16%</t>
+          <t>282,36%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>68,67%</t>
+          <t>242,2%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-78,23; 667,94</t>
+          <t>-40,25; 867,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
+          <t>20,62; 1147,44</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>-50,17; 595,14</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-79,92; 829,29</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
+      <c r="G11" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
+      <c r="H11" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-49,5; 1215,68</t>
+          <t>-33,95; 849,37</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-61,24; 1569,6</t>
+          <t>29,11; 1150,34</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-82,87; 924,29</t>
+          <t>22,1; 965,71</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,08</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,74</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,64</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>-0,66</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 3,0</t>
+          <t>-1,34; 3,77</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,65; 3,84</t>
+          <t>-2,63; 1,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 2,31</t>
+          <t>-3,24; 0,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,69</t>
+          <t>-3,57; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,84</t>
+          <t>-2,84; 0,84</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,1; 6,01</t>
+          <t>-2,1; 3,11</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 2,23</t>
+          <t>-1,19; 2,33</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,58; 2,87</t>
+          <t>-2,04; 1,07</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,46; 2,73</t>
+          <t>-2,43; 0,87</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>137,62%</t>
+          <t>52,04%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>242,62%</t>
+          <t>-13,36%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>101,67%</t>
+          <t>-44,72%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-41,1%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>57,39%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>154,11%</t>
+          <t>30,15%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>282,36%</t>
+          <t>-22,22%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>252,13%</t>
+          <t>-35,79%</t>
         </is>
       </c>
     </row>
@@ -1223,17 +1223,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-40,25; 867,1</t>
+          <t>-40,83; 334,03</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>20,62; 1147,44</t>
+          <t>-74,53; 166,24</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-48,99; 603,21</t>
+          <t>-86,12; 86,25</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-33,95; 849,37</t>
+          <t>-47,55; 232,21</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>29,11; 1150,34</t>
+          <t>-72,92; 130,45</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>21,52; 970,47</t>
+          <t>-84,74; 77,09</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>2,58</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0,91</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1,99</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0,37</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1,59</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0,42</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1,71</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
           <t>1,2</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-0,31</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-1,01</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-0,71</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-0,29</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>0,93</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>0,56</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>-0,41</t>
-        </is>
-      </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>1,38</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 3,77</t>
+          <t>1,22; 4,36</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 1,67</t>
+          <t>-0,16; 2,21</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 0,79</t>
+          <t>0,77; 3,83</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 0,0</t>
+          <t>-0,92; 2,22</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 0,84</t>
+          <t>-0,26; 3,51</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 4,86</t>
+          <t>-0,96; 1,59</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 2,33</t>
+          <t>0,7; 2,88</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 1,07</t>
+          <t>0,29; 2,24</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 1,28</t>
+          <t>0,42; 2,68</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>52,04%</t>
+          <t>521,83%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-13,36%</t>
+          <t>183,12%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-43,82%</t>
+          <t>403,09%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>56,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-41,1%</t>
+          <t>238,59%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>131,45%</t>
+          <t>62,49%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>30,15%</t>
+          <t>307,04%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-22,22%</t>
+          <t>214,99%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-21,39%</t>
+          <t>246,7%</t>
         </is>
       </c>
     </row>
@@ -1439,17 +1439,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-40,83; 334,03</t>
+          <t>81,16; 2261,69</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-74,53; 166,24</t>
+          <t>-47,47; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-86,11; 85,01</t>
+          <t>16,16; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1459,34 +1459,34 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,9; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-80,41; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-47,55; 232,21</t>
+          <t>52,32; 1159,19</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-72,92; 130,45</t>
+          <t>9,89; 938,61</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-77,99; 136,39</t>
+          <t>11,33; 1081,17</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2,58</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>1,93</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>1,59</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>1,71</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>0,79</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,22; 4,36</t>
+          <t>0,67; 2,47</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 2,21</t>
+          <t>0,13; 1,71</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,74; 3,69</t>
+          <t>-0,03; 1,52</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 2,22</t>
+          <t>-0,12; 1,33</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 3,51</t>
+          <t>0,28; 1,93</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 1,58</t>
+          <t>0,16; 2,07</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,7; 2,88</t>
+          <t>0,52; 1,77</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,24</t>
+          <t>0,37; 1,51</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,38; 2,55</t>
+          <t>0,17; 1,41</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>521,83%</t>
+          <t>137,65%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>183,12%</t>
+          <t>87,19%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>391,2%</t>
+          <t>66,54%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>56,0%</t>
+          <t>160,0%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>238,59%</t>
+          <t>308,22%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>61,02%</t>
+          <t>317,94%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>307,04%</t>
+          <t>137,07%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>214,99%</t>
+          <t>112,3%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>237,38%</t>
+          <t>95,45%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>81,16; 2261,69</t>
+          <t>37,81; 318,16</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-47,47; —</t>
+          <t>6,24; 232,6</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>14,77; 2508,96</t>
+          <t>-5,71; 203,65</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,93; 1299,42</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-61,9; —</t>
+          <t>0,08; 1448,3</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-80,19; —</t>
+          <t>8,63; 1531,58</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>52,32; 1159,19</t>
+          <t>42,03; 280,97</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>9,89; 938,61</t>
+          <t>29,33; 239,18</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>8,24; 1002,21</t>
+          <t>13,39; 229,56</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>1,47</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>0,93</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>0,74</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>0,53</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>1,02</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>1,24</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>1,14</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>0,93</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>0,88</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>0,67; 2,47</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>0,13; 1,71</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-0,01; 1,55</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-0,12; 1,33</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>0,28; 1,93</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>0,44; 2,43</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>0,52; 1,77</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>0,37; 1,51</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>0,31; 1,53</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>137,65%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>87,19%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>68,95%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>160,0%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>308,22%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>373,68%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>137,07%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>112,3%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>106,43%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>37,81; 318,16</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>6,24; 232,6</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-3,54; 206,88</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-45,93; 1299,42</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>0,08; 1448,3</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>33,13; 1880,14</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>42,03; 280,97</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>29,33; 239,18</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>23,58; 253,76</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P32A-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P32A-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 2,02</t>
+          <t>-1,24; 1,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 2,2</t>
+          <t>-1,24; 2,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 1,9</t>
+          <t>-1,27; 2,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,58; 5,54</t>
+          <t>0,59; 5,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,33</t>
+          <t>0,0; 3,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,93</t>
+          <t>0,0; 3,12</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 2,34</t>
+          <t>-0,27; 2,42</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 1,99</t>
+          <t>-0,48; 2,03</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 1,62</t>
+          <t>-0,75; 1,63</t>
         </is>
       </c>
     </row>
@@ -791,17 +791,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-73,14; 606,79</t>
+          <t>-76,18; 499,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-80,63; 550,08</t>
+          <t>-76,03; 626,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-75,87; 521,34</t>
+          <t>-77,56; 635,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -821,17 +821,17 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-46,54; 707,96</t>
+          <t>-40,43; 833,72</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-52,13; 740,54</t>
+          <t>-50,01; 938,72</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-70,76; 609,61</t>
+          <t>-60,81; 593,29</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 3,0</t>
+          <t>-0,12; 3,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,65; 3,84</t>
+          <t>0,54; 3,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 2,17</t>
+          <t>-0,35; 2,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,69</t>
+          <t>0,0; 1,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,84</t>
+          <t>0,29; 2,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,12; 6,05</t>
+          <t>1,18; 6,05</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 2,23</t>
+          <t>0,02; 2,15</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,58; 2,87</t>
+          <t>0,62; 2,89</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,42; 2,66</t>
+          <t>0,41; 2,68</t>
         </is>
       </c>
     </row>
@@ -1007,17 +1007,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-40,25; 867,1</t>
+          <t>-19,87; 1203,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>20,62; 1147,44</t>
+          <t>13,61; 1014,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-50,17; 595,14</t>
+          <t>-37,98; 638,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1037,17 +1037,17 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-33,95; 849,37</t>
+          <t>-19,72; 850,51</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>29,11; 1150,34</t>
+          <t>39,96; 1143,33</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>22,1; 965,71</t>
+          <t>18,74; 1052,42</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 3,77</t>
+          <t>-1,11; 3,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 1,67</t>
+          <t>-2,49; 1,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 0,79</t>
+          <t>-3,18; 0,77</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 0,0</t>
+          <t>-3,65; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 0,84</t>
+          <t>-2,85; 0,83</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 3,11</t>
+          <t>-2,58; 2,74</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 2,33</t>
+          <t>-1,11; 2,46</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 1,07</t>
+          <t>-1,91; 1,02</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 0,87</t>
+          <t>-2,44; 1,05</t>
         </is>
       </c>
     </row>
@@ -1223,17 +1223,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-40,83; 334,03</t>
+          <t>-38,2; 339,74</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-74,53; 166,24</t>
+          <t>-69,71; 193,34</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-86,12; 86,25</t>
+          <t>-89,88; 93,49</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1253,17 +1253,17 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-47,55; 232,21</t>
+          <t>-44,46; 216,86</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-72,92; 130,45</t>
+          <t>-70,66; 118,33</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-84,74; 77,09</t>
+          <t>-81,29; 116,67</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,22; 4,36</t>
+          <t>1,26; 4,23</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 2,21</t>
+          <t>-0,01; 2,23</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,77; 3,83</t>
+          <t>0,81; 3,75</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 2,22</t>
+          <t>-0,8; 2,23</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 3,51</t>
+          <t>-0,12; 3,72</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 1,59</t>
+          <t>-0,76; 1,58</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,7; 2,88</t>
+          <t>0,71; 2,85</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,24</t>
+          <t>0,32; 2,24</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,42; 2,68</t>
+          <t>0,35; 2,54</t>
         </is>
       </c>
     </row>
@@ -1439,17 +1439,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>81,16; 2261,69</t>
+          <t>98,67; 2246,08</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-47,47; —</t>
+          <t>-36,42; 1118,73</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>16,16; —</t>
+          <t>25,43; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1459,27 +1459,27 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-61,9; —</t>
+          <t>-59,21; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-80,41; —</t>
+          <t>-78,69; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>52,32; 1159,19</t>
+          <t>44,68; 1168,92</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>9,89; 938,61</t>
+          <t>12,85; 1039,44</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>11,33; 1081,17</t>
+          <t>12,51; 1063,15</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,67; 2,47</t>
+          <t>0,61; 2,44</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,71</t>
+          <t>0,08; 1,79</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 1,52</t>
+          <t>-0,06; 1,5</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 1,33</t>
+          <t>-0,12; 1,32</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,28; 1,93</t>
+          <t>0,24; 1,91</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,16; 2,07</t>
+          <t>0,12; 2,15</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,52; 1,77</t>
+          <t>0,53; 1,85</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,37; 1,51</t>
+          <t>0,39; 1,48</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,41</t>
+          <t>0,16; 1,45</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>37,81; 318,16</t>
+          <t>35,22; 313,78</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>6,24; 232,6</t>
+          <t>2,89; 243,6</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 203,65</t>
+          <t>-6,21; 209,32</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-45,93; 1299,42</t>
+          <t>-55,61; 1060,29</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>0,08; 1448,3</t>
+          <t>-3,05; 1561,1</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>8,63; 1531,58</t>
+          <t>-2,75; 1608,61</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>42,03; 280,97</t>
+          <t>45,1; 301,28</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>29,33; 239,18</t>
+          <t>34,53; 244,29</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>13,39; 229,56</t>
+          <t>13,35; 244,66</t>
         </is>
       </c>
     </row>
